--- a/EnglishTranslation-master/Rank Update Project/863-1255.xlsx
+++ b/EnglishTranslation-master/Rank Update Project/863-1255.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="22635" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="808">
   <si>
     <t>노브리어 숲 깊숙한 곳에서 누군가가 당신과의 만남을 기다리고 있습니다.</t>
   </si>
@@ -2374,24 +2374,90 @@
   </si>
   <si>
     <t>QUEST_LV_0400_20171012_002864</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you to finish your preparations.</t>
+  </si>
+  <si>
+    <t>Defeat the intruding demons.</t>
+  </si>
+  <si>
+    <t>Defeat the nearby demons.</t>
+  </si>
+  <si>
+    <t>Retrieve the scattered records.</t>
+  </si>
+  <si>
+    <t>Neringa directed you to eliminate the intruding demons to earn Goddess Vaivora's trust.</t>
+  </si>
+  <si>
+    <t>Underneath the shadow</t>
+  </si>
+  <si>
+    <t>There is someone deep within Nobreer Forest waiting to meet with you.</t>
+  </si>
+  <si>
+    <t>Neringa needs a revelator’s help in fulfilling Laima’s revelation. Let’s listen to her plan.</t>
+  </si>
+  <si>
+    <t>Neringa explained the role of the revelator to you. Talk to her to get things going.</t>
+  </si>
+  <si>
+    <t>You've agreed to work together with Neringa in accordance with Goddess Laima's revelation. Take the portal to Sausys Room 9 in the Fantasy Library.</t>
+  </si>
+  <si>
+    <t>Converse with Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>You have entered Sausys Room 9. Goddess Vaivora is waiting to command you.</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Sausys Room 9.</t>
+  </si>
+  <si>
+    <t>You have eliminated the intruding demons. Converse with Neringa to get the next step of the plan.</t>
+  </si>
+  <si>
+    <t>Neringa asked you to retrieve the damaged records scattered around during the demon's intrusion. Goddess Vaivora asks that you restore her records to their rightful locations.</t>
+  </si>
+  <si>
+    <t>You have retrieved enough records. Return to Neringa to get the next step of the plan.</t>
+  </si>
+  <si>
+    <t>Fate that is set in stone</t>
+  </si>
+  <si>
+    <t>Remove the demon's Kupole traps.</t>
+  </si>
+  <si>
+    <t>Neringa is asking you to remove the traps placed by the demons that invaded the library's Sausys Room 9, in an effort to impede Vaivora's Kupoles. She tells you that you'll be able to earn Goddess Vaivora's trust if you bear the danger and help with the Kupoles' assignments.</t>
+  </si>
+  <si>
+    <t>Converse with Kupole Rugile.</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Sausys room 10.</t>
+  </si>
+  <si>
+    <t>Enter the Fantasy Library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2428,7 +2494,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2436,12 +2502,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2730,19 +2799,22 @@
   <dimension ref="A1:G1255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2751,11 +2823,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>793</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2764,11 +2838,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>794</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2777,11 +2853,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2790,11 +2868,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2803,11 +2883,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>795</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2816,11 +2898,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>796</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2829,11 +2913,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>797</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2842,11 +2928,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>798</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2855,11 +2943,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>787</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2868,11 +2958,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>790</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2881,11 +2973,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>799</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2894,11 +2988,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2907,11 +3003,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2920,11 +3018,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>800</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2933,11 +3033,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2946,11 +3048,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2959,11 +3063,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>803</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2972,11 +3078,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>804</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2985,11 +3093,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2998,7 +3108,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>413</v>
       </c>
@@ -3011,7 +3121,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>414</v>
       </c>
@@ -3024,7 +3134,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>415</v>
       </c>
@@ -3037,7 +3147,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>416</v>
       </c>
@@ -3050,7 +3160,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>417</v>
       </c>
@@ -3063,7 +3173,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>418</v>
       </c>
@@ -3076,7 +3186,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>419</v>
       </c>
@@ -3089,7 +3199,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>420</v>
       </c>
@@ -3102,11 +3212,13 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3115,11 +3227,13 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3128,7 +3242,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>423</v>
       </c>
@@ -3141,7 +3255,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>424</v>
       </c>
@@ -3154,7 +3268,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>425</v>
       </c>
@@ -3167,7 +3281,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>426</v>
       </c>
@@ -3180,7 +3294,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>427</v>
       </c>
@@ -3193,7 +3307,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
@@ -3206,7 +3320,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>429</v>
       </c>
@@ -3219,7 +3333,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>430</v>
       </c>
@@ -3232,7 +3346,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>431</v>
       </c>
@@ -3245,7 +3359,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>432</v>
       </c>
@@ -3258,7 +3372,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>433</v>
       </c>
@@ -3271,7 +3385,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>434</v>
       </c>
@@ -3284,7 +3398,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>435</v>
       </c>
@@ -3297,7 +3411,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>436</v>
       </c>
@@ -3310,7 +3424,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>437</v>
       </c>
@@ -3323,7 +3437,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>438</v>
       </c>
@@ -3336,7 +3450,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>439</v>
       </c>
@@ -3349,7 +3463,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>440</v>
       </c>
@@ -3362,7 +3476,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>441</v>
       </c>
@@ -3375,7 +3489,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>442</v>
       </c>
@@ -3388,7 +3502,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>443</v>
       </c>
@@ -3401,7 +3515,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>444</v>
       </c>
@@ -3414,7 +3528,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>445</v>
       </c>
@@ -3427,7 +3541,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>446</v>
       </c>
@@ -3440,7 +3554,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>447</v>
       </c>
@@ -3453,7 +3567,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>448</v>
       </c>
@@ -3466,7 +3580,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>449</v>
       </c>
@@ -3479,7 +3593,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>450</v>
       </c>
@@ -3492,7 +3606,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>451</v>
       </c>
@@ -3505,7 +3619,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>452</v>
       </c>
@@ -3518,7 +3632,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>453</v>
       </c>
@@ -3531,7 +3645,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>454</v>
       </c>
@@ -3544,7 +3658,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>455</v>
       </c>
@@ -3557,7 +3671,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>456</v>
       </c>
@@ -3570,7 +3684,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>457</v>
       </c>
@@ -3583,7 +3697,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>458</v>
       </c>
@@ -3596,7 +3710,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>459</v>
       </c>
@@ -3609,7 +3723,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>460</v>
       </c>
@@ -3622,7 +3736,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>461</v>
       </c>
@@ -3635,7 +3749,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>462</v>
       </c>
@@ -3648,7 +3762,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>463</v>
       </c>
@@ -3661,7 +3775,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>464</v>
       </c>
@@ -3674,7 +3788,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>465</v>
       </c>
@@ -3687,7 +3801,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>466</v>
       </c>
@@ -3700,7 +3814,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>467</v>
       </c>
@@ -3713,7 +3827,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>468</v>
       </c>
@@ -3726,7 +3840,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>469</v>
       </c>
@@ -3739,7 +3853,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>470</v>
       </c>
@@ -3752,7 +3866,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>471</v>
       </c>
@@ -3765,7 +3879,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>472</v>
       </c>
@@ -3778,7 +3892,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>473</v>
       </c>
@@ -3791,7 +3905,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>474</v>
       </c>
@@ -3804,7 +3918,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>475</v>
       </c>
@@ -3817,7 +3931,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>476</v>
       </c>
@@ -3830,7 +3944,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>477</v>
       </c>
@@ -3843,7 +3957,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>478</v>
       </c>
@@ -3856,7 +3970,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>479</v>
       </c>
@@ -3869,7 +3983,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>480</v>
       </c>
@@ -3882,7 +3996,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>481</v>
       </c>
@@ -3895,7 +4009,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>482</v>
       </c>
@@ -3908,7 +4022,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>483</v>
       </c>
@@ -3921,7 +4035,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>484</v>
       </c>
@@ -3934,7 +4048,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>485</v>
       </c>
@@ -3947,7 +4061,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>486</v>
       </c>
@@ -3960,7 +4074,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>487</v>
       </c>
@@ -3973,7 +4087,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>488</v>
       </c>
@@ -3986,7 +4100,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>489</v>
       </c>
@@ -3999,7 +4113,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>490</v>
       </c>
@@ -4012,7 +4126,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>491</v>
       </c>
@@ -4025,7 +4139,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>492</v>
       </c>
@@ -4038,7 +4152,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>493</v>
       </c>
@@ -4051,7 +4165,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>494</v>
       </c>
@@ -4064,7 +4178,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>495</v>
       </c>
@@ -4077,7 +4191,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>496</v>
       </c>
@@ -4090,7 +4204,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>497</v>
       </c>
@@ -4103,7 +4217,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>498</v>
       </c>
@@ -4116,7 +4230,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>499</v>
       </c>
@@ -4129,7 +4243,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>500</v>
       </c>
@@ -4142,7 +4256,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>501</v>
       </c>
@@ -4155,7 +4269,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>502</v>
       </c>
@@ -4168,7 +4282,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>503</v>
       </c>
@@ -4181,7 +4295,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>504</v>
       </c>
@@ -4194,7 +4308,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>505</v>
       </c>
@@ -4207,7 +4321,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>506</v>
       </c>
@@ -4220,7 +4334,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>507</v>
       </c>
@@ -4233,7 +4347,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>508</v>
       </c>
@@ -4246,7 +4360,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>509</v>
       </c>
@@ -4259,7 +4373,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>510</v>
       </c>
@@ -4272,7 +4386,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>511</v>
       </c>
@@ -4285,7 +4399,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>512</v>
       </c>
@@ -4298,7 +4412,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>513</v>
       </c>
@@ -4311,7 +4425,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>514</v>
       </c>
@@ -4324,7 +4438,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>515</v>
       </c>
@@ -4337,7 +4451,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>516</v>
       </c>
@@ -4350,7 +4464,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>517</v>
       </c>
@@ -4363,7 +4477,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>518</v>
       </c>
@@ -4376,7 +4490,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>519</v>
       </c>
@@ -4389,7 +4503,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>520</v>
       </c>
@@ -4402,7 +4516,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>521</v>
       </c>
@@ -4415,7 +4529,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>522</v>
       </c>
@@ -4428,7 +4542,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>523</v>
       </c>
@@ -4441,7 +4555,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>524</v>
       </c>
@@ -4454,7 +4568,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>525</v>
       </c>
@@ -4467,7 +4581,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>526</v>
       </c>
@@ -4480,7 +4594,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>527</v>
       </c>
@@ -4493,7 +4607,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>528</v>
       </c>
@@ -4506,7 +4620,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>529</v>
       </c>
@@ -4519,7 +4633,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>530</v>
       </c>
@@ -4532,7 +4646,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>531</v>
       </c>
@@ -4545,7 +4659,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>532</v>
       </c>
@@ -4558,7 +4672,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>533</v>
       </c>
@@ -4571,7 +4685,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>534</v>
       </c>
@@ -4584,7 +4698,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>535</v>
       </c>
@@ -4597,7 +4711,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>536</v>
       </c>
@@ -4610,7 +4724,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>537</v>
       </c>
@@ -4623,7 +4737,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>538</v>
       </c>
@@ -4636,7 +4750,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>539</v>
       </c>
@@ -4649,7 +4763,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>540</v>
       </c>
@@ -4662,7 +4776,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>541</v>
       </c>
@@ -4675,7 +4789,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>542</v>
       </c>
@@ -4688,7 +4802,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>543</v>
       </c>
@@ -4701,7 +4815,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>544</v>
       </c>
@@ -4714,7 +4828,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>545</v>
       </c>
@@ -4727,7 +4841,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>546</v>
       </c>
@@ -4740,7 +4854,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>547</v>
       </c>
@@ -4753,7 +4867,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>548</v>
       </c>
@@ -4766,7 +4880,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>549</v>
       </c>
@@ -4779,7 +4893,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>550</v>
       </c>
@@ -4792,7 +4906,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>551</v>
       </c>
@@ -4805,7 +4919,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
         <v>552</v>
       </c>
@@ -4818,7 +4932,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>553</v>
       </c>
@@ -4831,7 +4945,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>554</v>
       </c>
@@ -4844,7 +4958,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>555</v>
       </c>
@@ -4857,7 +4971,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>556</v>
       </c>
@@ -4870,7 +4984,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>557</v>
       </c>
@@ -4883,7 +4997,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>558</v>
       </c>
@@ -4896,7 +5010,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>559</v>
       </c>
@@ -4909,7 +5023,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>560</v>
       </c>
@@ -4922,7 +5036,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>561</v>
       </c>
@@ -4935,7 +5049,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>562</v>
       </c>
@@ -4948,7 +5062,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>563</v>
       </c>
@@ -4961,7 +5075,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>564</v>
       </c>
@@ -4974,7 +5088,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>565</v>
       </c>
@@ -4987,7 +5101,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>566</v>
       </c>
@@ -5000,7 +5114,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>567</v>
       </c>
@@ -5013,7 +5127,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>568</v>
       </c>
@@ -5026,7 +5140,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>569</v>
       </c>
@@ -5039,7 +5153,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>570</v>
       </c>
@@ -5052,7 +5166,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
         <v>571</v>
       </c>
@@ -5065,7 +5179,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>572</v>
       </c>
@@ -5078,7 +5192,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
         <v>573</v>
       </c>
@@ -5091,7 +5205,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
         <v>574</v>
       </c>
@@ -5104,7 +5218,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
         <v>575</v>
       </c>
@@ -5117,7 +5231,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>576</v>
       </c>
@@ -5130,7 +5244,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
         <v>577</v>
       </c>
@@ -5143,7 +5257,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
         <v>578</v>
       </c>
@@ -5156,7 +5270,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>579</v>
       </c>
@@ -5169,7 +5283,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>580</v>
       </c>
@@ -5182,7 +5296,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>581</v>
       </c>
@@ -5195,7 +5309,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>582</v>
       </c>
@@ -5208,7 +5322,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>583</v>
       </c>
@@ -5221,7 +5335,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
         <v>584</v>
       </c>
@@ -5234,7 +5348,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>585</v>
       </c>
@@ -5247,7 +5361,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>586</v>
       </c>
@@ -5260,7 +5374,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
         <v>587</v>
       </c>
@@ -5273,7 +5387,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>588</v>
       </c>
@@ -5286,7 +5400,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>589</v>
       </c>
@@ -5299,7 +5413,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
         <v>590</v>
       </c>
@@ -5312,7 +5426,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
         <v>591</v>
       </c>
@@ -5325,7 +5439,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>592</v>
       </c>
@@ -5338,7 +5452,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
         <v>593</v>
       </c>
@@ -5351,7 +5465,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
         <v>594</v>
       </c>
@@ -5364,7 +5478,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>595</v>
       </c>
@@ -5377,7 +5491,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
         <v>596</v>
       </c>
@@ -5390,7 +5504,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
         <v>597</v>
       </c>
@@ -5403,7 +5517,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
         <v>598</v>
       </c>
@@ -5416,7 +5530,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>599</v>
       </c>
@@ -5429,7 +5543,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
         <v>600</v>
       </c>
@@ -5442,7 +5556,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
         <v>601</v>
       </c>
@@ -5455,7 +5569,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>602</v>
       </c>
@@ -5468,7 +5582,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
         <v>603</v>
       </c>
@@ -5481,7 +5595,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
         <v>604</v>
       </c>
@@ -5494,7 +5608,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>605</v>
       </c>
@@ -5507,7 +5621,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>606</v>
       </c>
@@ -5520,7 +5634,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>607</v>
       </c>
@@ -5533,7 +5647,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>608</v>
       </c>
@@ -5546,7 +5660,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>609</v>
       </c>
@@ -5559,7 +5673,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>610</v>
       </c>
@@ -5572,7 +5686,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
         <v>611</v>
       </c>
@@ -5585,7 +5699,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>612</v>
       </c>
@@ -5598,7 +5712,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
         <v>613</v>
       </c>
@@ -5611,7 +5725,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>614</v>
       </c>
@@ -5624,7 +5738,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>615</v>
       </c>
@@ -5637,7 +5751,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>616</v>
       </c>
@@ -5650,7 +5764,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>617</v>
       </c>
@@ -5663,7 +5777,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>618</v>
       </c>
@@ -5676,7 +5790,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>619</v>
       </c>
@@ -5689,7 +5803,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>620</v>
       </c>
@@ -5702,7 +5816,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>621</v>
       </c>
@@ -5715,7 +5829,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>622</v>
       </c>
@@ -5728,7 +5842,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>623</v>
       </c>
@@ -5741,7 +5855,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>624</v>
       </c>
@@ -5754,7 +5868,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>625</v>
       </c>
@@ -5767,7 +5881,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>626</v>
       </c>
@@ -5780,7 +5894,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>627</v>
       </c>
@@ -5793,7 +5907,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>628</v>
       </c>
@@ -5806,7 +5920,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>629</v>
       </c>
@@ -5819,7 +5933,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>630</v>
       </c>
@@ -5832,7 +5946,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>631</v>
       </c>
@@ -5845,7 +5959,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>632</v>
       </c>
@@ -5858,7 +5972,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
         <v>633</v>
       </c>
@@ -5871,7 +5985,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
         <v>634</v>
       </c>
@@ -5884,7 +5998,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
         <v>635</v>
       </c>
@@ -5897,7 +6011,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
         <v>636</v>
       </c>
@@ -5910,7 +6024,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
         <v>637</v>
       </c>
@@ -5923,7 +6037,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
         <v>638</v>
       </c>
@@ -5936,7 +6050,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>639</v>
       </c>
@@ -5949,7 +6063,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
         <v>640</v>
       </c>
@@ -5962,7 +6076,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
         <v>641</v>
       </c>
@@ -5975,7 +6089,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
         <v>642</v>
       </c>
@@ -5988,7 +6102,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
         <v>643</v>
       </c>
@@ -6001,7 +6115,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>644</v>
       </c>
@@ -6014,7 +6128,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
         <v>645</v>
       </c>
@@ -6027,7 +6141,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
         <v>646</v>
       </c>
@@ -6040,7 +6154,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
         <v>647</v>
       </c>
@@ -6053,7 +6167,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
         <v>648</v>
       </c>
@@ -6066,7 +6180,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
         <v>649</v>
       </c>
@@ -6079,7 +6193,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>650</v>
       </c>
@@ -6092,7 +6206,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
         <v>651</v>
       </c>
@@ -6105,7 +6219,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
         <v>652</v>
       </c>
@@ -6118,7 +6232,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
         <v>653</v>
       </c>
@@ -6131,7 +6245,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
         <v>654</v>
       </c>
@@ -6144,7 +6258,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
         <v>655</v>
       </c>
@@ -6157,7 +6271,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
         <v>656</v>
       </c>
@@ -6170,7 +6284,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
         <v>657</v>
       </c>
@@ -6183,7 +6297,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
         <v>658</v>
       </c>
@@ -6196,7 +6310,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
         <v>659</v>
       </c>
@@ -6209,7 +6323,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
         <v>660</v>
       </c>
@@ -6222,7 +6336,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
         <v>661</v>
       </c>
@@ -6235,7 +6349,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
         <v>662</v>
       </c>
@@ -6248,7 +6362,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
         <v>663</v>
       </c>
@@ -6261,7 +6375,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
         <v>664</v>
       </c>
@@ -6274,7 +6388,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
         <v>665</v>
       </c>
@@ -6287,7 +6401,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
         <v>666</v>
       </c>
@@ -6300,7 +6414,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
         <v>667</v>
       </c>
@@ -6313,7 +6427,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
         <v>668</v>
       </c>
@@ -6326,7 +6440,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
         <v>669</v>
       </c>
@@ -6339,7 +6453,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
         <v>670</v>
       </c>
@@ -6352,7 +6466,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
         <v>671</v>
       </c>
@@ -6365,7 +6479,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
         <v>672</v>
       </c>
@@ -6378,7 +6492,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
         <v>673</v>
       </c>
@@ -6391,7 +6505,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
         <v>674</v>
       </c>
@@ -6404,7 +6518,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
         <v>675</v>
       </c>
@@ -6417,7 +6531,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
         <v>676</v>
       </c>
@@ -6430,7 +6544,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
         <v>677</v>
       </c>
@@ -6443,7 +6557,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
         <v>678</v>
       </c>
@@ -6456,7 +6570,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
         <v>679</v>
       </c>
@@ -6469,7 +6583,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
         <v>680</v>
       </c>
@@ -6482,7 +6596,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
         <v>681</v>
       </c>
@@ -6495,7 +6609,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
         <v>682</v>
       </c>
@@ -6508,7 +6622,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
         <v>683</v>
       </c>
@@ -6521,7 +6635,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
         <v>684</v>
       </c>
@@ -6534,7 +6648,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
         <v>685</v>
       </c>
@@ -6547,7 +6661,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
         <v>686</v>
       </c>
@@ -6560,7 +6674,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
         <v>687</v>
       </c>
@@ -6573,7 +6687,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
         <v>688</v>
       </c>
@@ -6586,7 +6700,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
         <v>689</v>
       </c>
@@ -6599,7 +6713,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
         <v>690</v>
       </c>
@@ -6612,7 +6726,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
         <v>691</v>
       </c>
@@ -6625,7 +6739,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
         <v>692</v>
       </c>
@@ -6638,7 +6752,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
         <v>693</v>
       </c>
@@ -6651,7 +6765,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
         <v>694</v>
       </c>
@@ -6664,7 +6778,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
         <v>695</v>
       </c>
@@ -6677,7 +6791,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
         <v>696</v>
       </c>
@@ -6690,7 +6804,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
         <v>697</v>
       </c>
@@ -6703,7 +6817,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
         <v>698</v>
       </c>
@@ -6716,7 +6830,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
         <v>699</v>
       </c>
@@ -6729,7 +6843,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
         <v>700</v>
       </c>
@@ -6742,7 +6856,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
         <v>701</v>
       </c>
@@ -6755,7 +6869,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
         <v>702</v>
       </c>
@@ -6768,7 +6882,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
         <v>703</v>
       </c>
@@ -6781,7 +6895,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
         <v>704</v>
       </c>
@@ -6794,7 +6908,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
         <v>705</v>
       </c>
@@ -6807,7 +6921,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
         <v>706</v>
       </c>
@@ -6820,7 +6934,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
         <v>707</v>
       </c>
@@ -6833,7 +6947,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
         <v>708</v>
       </c>
@@ -6846,7 +6960,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
         <v>709</v>
       </c>
@@ -6859,7 +6973,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
         <v>710</v>
       </c>
@@ -6872,7 +6986,7 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
         <v>711</v>
       </c>
@@ -6885,7 +6999,7 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
         <v>712</v>
       </c>
@@ -6898,7 +7012,7 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
         <v>713</v>
       </c>
@@ -6911,7 +7025,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
         <v>714</v>
       </c>
@@ -6924,7 +7038,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
         <v>715</v>
       </c>
@@ -6937,7 +7051,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
         <v>716</v>
       </c>
@@ -6950,7 +7064,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
         <v>717</v>
       </c>
@@ -6963,7 +7077,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
         <v>718</v>
       </c>
@@ -6976,7 +7090,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
         <v>719</v>
       </c>
@@ -6989,7 +7103,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
         <v>720</v>
       </c>
@@ -7002,7 +7116,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
         <v>721</v>
       </c>
@@ -7015,7 +7129,7 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
         <v>722</v>
       </c>
@@ -7028,7 +7142,7 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
         <v>723</v>
       </c>
@@ -7041,7 +7155,7 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
         <v>724</v>
       </c>
@@ -7054,7 +7168,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
         <v>725</v>
       </c>
@@ -7067,7 +7181,7 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
         <v>726</v>
       </c>
@@ -7080,7 +7194,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
         <v>727</v>
       </c>
@@ -7093,7 +7207,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
         <v>728</v>
       </c>
@@ -7106,7 +7220,7 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
         <v>729</v>
       </c>
@@ -7119,7 +7233,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
         <v>730</v>
       </c>
@@ -7132,7 +7246,7 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
         <v>731</v>
       </c>
@@ -7145,7 +7259,7 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
         <v>732</v>
       </c>
@@ -7158,7 +7272,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
         <v>733</v>
       </c>
@@ -7171,7 +7285,7 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
         <v>734</v>
       </c>
@@ -7184,7 +7298,7 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
         <v>735</v>
       </c>
@@ -7197,7 +7311,7 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
         <v>736</v>
       </c>
@@ -7210,7 +7324,7 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
         <v>737</v>
       </c>
@@ -7223,7 +7337,7 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
         <v>738</v>
       </c>
@@ -7236,7 +7350,7 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
         <v>739</v>
       </c>
@@ -7249,7 +7363,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
         <v>740</v>
       </c>
@@ -7262,7 +7376,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
         <v>741</v>
       </c>
@@ -7275,7 +7389,7 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
         <v>742</v>
       </c>
@@ -7288,7 +7402,7 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
         <v>743</v>
       </c>
@@ -7301,7 +7415,7 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
         <v>744</v>
       </c>
@@ -7314,7 +7428,7 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7">
       <c r="A353" s="1" t="s">
         <v>745</v>
       </c>
@@ -7327,7 +7441,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7">
       <c r="A354" s="1" t="s">
         <v>746</v>
       </c>
@@ -7340,7 +7454,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7">
       <c r="A355" s="1" t="s">
         <v>747</v>
       </c>
@@ -7353,7 +7467,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7">
       <c r="A356" s="1" t="s">
         <v>748</v>
       </c>
@@ -7366,7 +7480,7 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
         <v>749</v>
       </c>
@@ -7379,7 +7493,7 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
         <v>750</v>
       </c>
@@ -7392,7 +7506,7 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
         <v>751</v>
       </c>
@@ -7405,7 +7519,7 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
         <v>752</v>
       </c>
@@ -7418,7 +7532,7 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
         <v>753</v>
       </c>
@@ -7431,7 +7545,7 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
         <v>754</v>
       </c>
@@ -7444,7 +7558,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
         <v>755</v>
       </c>
@@ -7457,7 +7571,7 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
         <v>756</v>
       </c>
@@ -7470,7 +7584,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
         <v>757</v>
       </c>
@@ -7483,7 +7597,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7">
       <c r="A366" s="1" t="s">
         <v>758</v>
       </c>
@@ -7496,7 +7610,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7">
       <c r="A367" s="1" t="s">
         <v>759</v>
       </c>
@@ -7509,7 +7623,7 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
         <v>760</v>
       </c>
@@ -7522,7 +7636,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
         <v>761</v>
       </c>
@@ -7535,7 +7649,7 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
         <v>762</v>
       </c>
@@ -7548,7 +7662,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
         <v>763</v>
       </c>
@@ -7561,7 +7675,7 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
         <v>764</v>
       </c>
@@ -7574,7 +7688,7 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
         <v>765</v>
       </c>
@@ -7587,7 +7701,7 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
         <v>766</v>
       </c>
@@ -7600,7 +7714,7 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
         <v>767</v>
       </c>
@@ -7613,7 +7727,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
         <v>768</v>
       </c>
@@ -7626,7 +7740,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
         <v>769</v>
       </c>
@@ -7639,7 +7753,7 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
         <v>770</v>
       </c>
@@ -7652,7 +7766,7 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7">
       <c r="A379" s="1" t="s">
         <v>771</v>
       </c>
@@ -7665,7 +7779,7 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7">
       <c r="A380" s="1" t="s">
         <v>772</v>
       </c>
@@ -7678,7 +7792,7 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7">
       <c r="A381" s="1" t="s">
         <v>773</v>
       </c>
@@ -7691,7 +7805,7 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
         <v>774</v>
       </c>
@@ -7704,7 +7818,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
         <v>775</v>
       </c>
@@ -7717,7 +7831,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
         <v>776</v>
       </c>
@@ -7730,7 +7844,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
         <v>777</v>
       </c>
@@ -7743,7 +7857,7 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
         <v>778</v>
       </c>
@@ -7756,7 +7870,7 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
         <v>779</v>
       </c>
@@ -7769,7 +7883,7 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
         <v>780</v>
       </c>
@@ -7782,7 +7896,7 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
         <v>781</v>
       </c>
@@ -7795,7 +7909,7 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
         <v>782</v>
       </c>
@@ -7808,7 +7922,7 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
         <v>783</v>
       </c>
@@ -7821,7 +7935,7 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
         <v>784</v>
       </c>
@@ -7834,7 +7948,7 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
         <v>785</v>
       </c>
@@ -7847,2590 +7961,2590 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1">
       <c r="A450" s="1"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1">
       <c r="A451" s="1"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1">
       <c r="A452" s="1"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1">
       <c r="A454" s="1"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1">
       <c r="A460" s="1"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1">
       <c r="A461" s="1"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1">
       <c r="A462" s="1"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1">
       <c r="A463" s="1"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1">
       <c r="A505" s="1"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1">
       <c r="A506" s="1"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1">
       <c r="A507" s="1"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1">
       <c r="A508" s="1"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1">
       <c r="A511" s="1"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1">
       <c r="A513" s="1"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1">
       <c r="A514" s="1"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1">
       <c r="A515" s="1"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1">
       <c r="A516" s="1"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1">
       <c r="A517" s="1"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1">
       <c r="A518" s="1"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1">
       <c r="A519" s="1"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1">
       <c r="A520" s="1"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1">
       <c r="A521" s="1"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1">
       <c r="A522" s="1"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1">
       <c r="A524" s="1"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1">
       <c r="A525" s="1"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1">
       <c r="A527" s="1"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1">
       <c r="A528" s="1"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1">
       <c r="A529" s="1"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1">
       <c r="A530" s="1"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1">
       <c r="A531" s="1"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1">
       <c r="A532" s="1"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1">
       <c r="A533" s="1"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1">
       <c r="A534" s="1"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1">
       <c r="A535" s="1"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1">
       <c r="A536" s="1"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1">
       <c r="A537" s="1"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1">
       <c r="A538" s="1"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1">
       <c r="A539" s="1"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1">
       <c r="A540" s="1"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1">
       <c r="A544" s="1"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1">
       <c r="A545" s="1"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1">
       <c r="A546" s="1"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1">
       <c r="A547" s="1"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1">
       <c r="A548" s="1"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1">
       <c r="A549" s="1"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1">
       <c r="A550" s="1"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1">
       <c r="A551" s="1"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1">
       <c r="A552" s="1"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1">
       <c r="A553" s="1"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1">
       <c r="A554" s="1"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1">
       <c r="A556" s="1"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1">
       <c r="A557" s="1"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1">
       <c r="A558" s="1"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1">
       <c r="A559" s="1"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1">
       <c r="A560" s="1"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1">
       <c r="A561" s="1"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1">
       <c r="A562" s="1"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1">
       <c r="A563" s="1"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1">
       <c r="A564" s="1"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1">
       <c r="A565" s="1"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1">
       <c r="A566" s="1"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1">
       <c r="A567" s="1"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1">
       <c r="A568" s="1"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1">
       <c r="A569" s="1"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1">
       <c r="A570" s="1"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1">
       <c r="A571" s="1"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1">
       <c r="A572" s="1"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1">
       <c r="A573" s="1"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1">
       <c r="A574" s="1"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1">
       <c r="A575" s="1"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1">
       <c r="A576" s="1"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1">
       <c r="A577" s="1"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1">
       <c r="A578" s="1"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1">
       <c r="A579" s="1"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1">
       <c r="A580" s="1"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1">
       <c r="A581" s="1"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1">
       <c r="A582" s="1"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1">
       <c r="A583" s="1"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1">
       <c r="A584" s="1"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1">
       <c r="A585" s="1"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1">
       <c r="A586" s="1"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1">
       <c r="A588" s="1"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1">
       <c r="A589" s="1"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1">
       <c r="A590" s="1"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1">
       <c r="A591" s="1"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1">
       <c r="A592" s="1"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1">
       <c r="A593" s="1"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1">
       <c r="A594" s="1"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1">
       <c r="A595" s="1"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1">
       <c r="A596" s="1"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1">
       <c r="A597" s="1"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1">
       <c r="A598" s="1"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1">
       <c r="A599" s="1"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1">
       <c r="A600" s="1"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1">
       <c r="A601" s="1"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1">
       <c r="A602" s="1"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1">
       <c r="A603" s="1"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1">
       <c r="A604" s="1"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1">
       <c r="A605" s="1"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1">
       <c r="A606" s="1"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1">
       <c r="A607" s="1"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1">
       <c r="A608" s="1"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1">
       <c r="A609" s="1"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1">
       <c r="A610" s="1"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1">
       <c r="A611" s="1"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1">
       <c r="A612" s="1"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1">
       <c r="A613" s="1"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1">
       <c r="A614" s="1"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1">
       <c r="A615" s="1"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1">
       <c r="A616" s="1"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1">
       <c r="A617" s="1"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1">
       <c r="A618" s="1"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1">
       <c r="A619" s="1"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1">
       <c r="A620" s="1"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1">
       <c r="A621" s="1"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1">
       <c r="A622" s="1"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1">
       <c r="A623" s="1"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1">
       <c r="A624" s="1"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1">
       <c r="A625" s="1"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1">
       <c r="A626" s="1"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1">
       <c r="A627" s="1"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1">
       <c r="A628" s="1"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1">
       <c r="A629" s="1"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1">
       <c r="A630" s="1"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1">
       <c r="A631" s="1"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1">
       <c r="A632" s="1"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1">
       <c r="A633" s="1"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1">
       <c r="A634" s="1"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1">
       <c r="A635" s="1"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1">
       <c r="A636" s="1"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1">
       <c r="A637" s="1"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1">
       <c r="A638" s="1"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1">
       <c r="A639" s="1"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1">
       <c r="A640" s="1"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1">
       <c r="A641" s="1"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1">
       <c r="A642" s="1"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1">
       <c r="A643" s="1"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1">
       <c r="A644" s="1"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1">
       <c r="A645" s="1"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1">
       <c r="A646" s="1"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1">
       <c r="A647" s="1"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1">
       <c r="A648" s="1"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1">
       <c r="A649" s="1"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1">
       <c r="A650" s="1"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1">
       <c r="A651" s="1"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1">
       <c r="A652" s="1"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1">
       <c r="A653" s="1"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1">
       <c r="A654" s="1"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1">
       <c r="A655" s="1"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1">
       <c r="A656" s="1"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1">
       <c r="A657" s="1"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1">
       <c r="A658" s="1"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1">
       <c r="A659" s="1"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1">
       <c r="A660" s="1"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1">
       <c r="A661" s="1"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1">
       <c r="A662" s="1"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1">
       <c r="A663" s="1"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1">
       <c r="A664" s="1"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1">
       <c r="A665" s="1"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1">
       <c r="A666" s="1"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1">
       <c r="A667" s="1"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1">
       <c r="A668" s="1"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1">
       <c r="A669" s="1"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1">
       <c r="A670" s="1"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1">
       <c r="A671" s="1"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1">
       <c r="A672" s="1"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1">
       <c r="A673" s="1"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1">
       <c r="A674" s="1"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1">
       <c r="A675" s="1"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1">
       <c r="A676" s="1"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1">
       <c r="A677" s="1"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1">
       <c r="A678" s="1"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1">
       <c r="A679" s="1"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1">
       <c r="A680" s="1"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1">
       <c r="A681" s="1"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1">
       <c r="A682" s="1"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1">
       <c r="A683" s="1"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1">
       <c r="A684" s="1"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1">
       <c r="A685" s="1"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1">
       <c r="A686" s="1"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1">
       <c r="A687" s="1"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1">
       <c r="A688" s="1"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1">
       <c r="A689" s="1"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1">
       <c r="A690" s="1"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1">
       <c r="A691" s="1"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1">
       <c r="A692" s="1"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1">
       <c r="A693" s="1"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1">
       <c r="A694" s="1"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1">
       <c r="A695" s="1"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1">
       <c r="A696" s="1"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1">
       <c r="A697" s="1"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1">
       <c r="A698" s="1"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1">
       <c r="A699" s="1"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1">
       <c r="A700" s="1"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1">
       <c r="A701" s="1"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1">
       <c r="A702" s="1"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1">
       <c r="A703" s="1"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1">
       <c r="A704" s="1"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1">
       <c r="A705" s="1"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1">
       <c r="A706" s="1"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1">
       <c r="A707" s="1"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1">
       <c r="A708" s="1"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1">
       <c r="A709" s="1"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1">
       <c r="A710" s="1"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1">
       <c r="A711" s="1"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1">
       <c r="A712" s="1"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1">
       <c r="A713" s="1"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1">
       <c r="A714" s="1"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1">
       <c r="A715" s="1"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1">
       <c r="A716" s="1"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1">
       <c r="A717" s="1"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1">
       <c r="A718" s="1"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1">
       <c r="A719" s="1"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1">
       <c r="A720" s="1"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1">
       <c r="A721" s="1"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1">
       <c r="A722" s="1"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1">
       <c r="A723" s="1"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1">
       <c r="A724" s="1"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1">
       <c r="A725" s="1"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1">
       <c r="A726" s="1"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1">
       <c r="A727" s="1"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1">
       <c r="A728" s="1"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1">
       <c r="A729" s="1"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1">
       <c r="A730" s="1"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1">
       <c r="A731" s="1"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1">
       <c r="A732" s="1"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1">
       <c r="A733" s="1"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1">
       <c r="A734" s="1"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1">
       <c r="A735" s="1"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1">
       <c r="A736" s="1"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1">
       <c r="A737" s="1"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1">
       <c r="A738" s="1"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1">
       <c r="A739" s="1"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1">
       <c r="A740" s="1"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1">
       <c r="A741" s="1"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1">
       <c r="A742" s="1"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1">
       <c r="A743" s="1"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1">
       <c r="A744" s="1"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1">
       <c r="A745" s="1"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1">
       <c r="A746" s="1"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1">
       <c r="A747" s="1"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1">
       <c r="A748" s="1"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1">
       <c r="A749" s="1"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1">
       <c r="A750" s="1"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1">
       <c r="A751" s="1"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1">
       <c r="A752" s="1"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1">
       <c r="A753" s="1"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1">
       <c r="A754" s="1"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1">
       <c r="A755" s="1"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1">
       <c r="A756" s="1"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1">
       <c r="A757" s="1"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1">
       <c r="A758" s="1"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1">
       <c r="A759" s="1"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1">
       <c r="A760" s="1"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1">
       <c r="A761" s="1"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1">
       <c r="A762" s="1"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1">
       <c r="A763" s="1"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1">
       <c r="A764" s="1"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1">
       <c r="A765" s="1"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1">
       <c r="A766" s="1"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1">
       <c r="A767" s="1"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1">
       <c r="A768" s="1"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1">
       <c r="A769" s="1"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1">
       <c r="A770" s="1"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1">
       <c r="A771" s="1"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1">
       <c r="A772" s="1"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1">
       <c r="A773" s="1"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1">
       <c r="A774" s="1"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1">
       <c r="A775" s="1"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1">
       <c r="A776" s="1"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1">
       <c r="A777" s="1"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1">
       <c r="A778" s="1"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1">
       <c r="A779" s="1"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1">
       <c r="A780" s="1"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1">
       <c r="A781" s="1"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1">
       <c r="A782" s="1"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1">
       <c r="A783" s="1"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1">
       <c r="A784" s="1"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1">
       <c r="A785" s="1"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1">
       <c r="A786" s="1"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1">
       <c r="A787" s="1"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1">
       <c r="A788" s="1"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1">
       <c r="A789" s="1"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1">
       <c r="A790" s="1"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1">
       <c r="A791" s="1"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1">
       <c r="A792" s="1"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1">
       <c r="A793" s="1"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1">
       <c r="A794" s="1"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1">
       <c r="A795" s="1"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1">
       <c r="A796" s="1"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1">
       <c r="A797" s="1"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1">
       <c r="A798" s="1"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1">
       <c r="A799" s="1"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1">
       <c r="A800" s="1"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1">
       <c r="A801" s="1"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1">
       <c r="A802" s="1"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1">
       <c r="A803" s="1"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1">
       <c r="A804" s="1"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1">
       <c r="A805" s="1"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1">
       <c r="A806" s="1"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1">
       <c r="A807" s="1"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1">
       <c r="A808" s="1"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1">
       <c r="A809" s="1"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1">
       <c r="A810" s="1"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1">
       <c r="A811" s="1"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1">
       <c r="A812" s="1"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1">
       <c r="A813" s="1"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1">
       <c r="A814" s="1"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1">
       <c r="A815" s="1"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1">
       <c r="A816" s="1"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1">
       <c r="A817" s="1"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1">
       <c r="A818" s="1"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1">
       <c r="A819" s="1"/>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1">
       <c r="A820" s="1"/>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1">
       <c r="A821" s="1"/>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1">
       <c r="A822" s="1"/>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1">
       <c r="A823" s="1"/>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1">
       <c r="A824" s="1"/>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1">
       <c r="A825" s="1"/>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1">
       <c r="A826" s="1"/>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1">
       <c r="A827" s="1"/>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1">
       <c r="A828" s="1"/>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1">
       <c r="A829" s="1"/>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1">
       <c r="A830" s="1"/>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1">
       <c r="A831" s="1"/>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1">
       <c r="A832" s="1"/>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1">
       <c r="A833" s="1"/>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1">
       <c r="A834" s="1"/>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1">
       <c r="A835" s="1"/>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1">
       <c r="A836" s="1"/>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1">
       <c r="A837" s="1"/>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1">
       <c r="A838" s="1"/>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1">
       <c r="A839" s="1"/>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1">
       <c r="A840" s="1"/>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1">
       <c r="A841" s="1"/>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1">
       <c r="A842" s="1"/>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1">
       <c r="A843" s="1"/>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1">
       <c r="A844" s="1"/>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1">
       <c r="A845" s="1"/>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1">
       <c r="A846" s="1"/>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1">
       <c r="A847" s="1"/>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1">
       <c r="A848" s="1"/>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1">
       <c r="A849" s="1"/>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1">
       <c r="A850" s="1"/>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1">
       <c r="A851" s="1"/>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1">
       <c r="A852" s="1"/>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1">
       <c r="A853" s="1"/>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1">
       <c r="A854" s="1"/>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1">
       <c r="A855" s="1"/>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1">
       <c r="A856" s="1"/>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1">
       <c r="A857" s="1"/>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1">
       <c r="A858" s="1"/>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1">
       <c r="A859" s="1"/>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1">
       <c r="A860" s="1"/>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1">
       <c r="A861" s="1"/>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1">
       <c r="A862" s="1"/>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1">
       <c r="A863" s="1"/>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1">
       <c r="A864" s="1"/>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1">
       <c r="A865" s="1"/>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1">
       <c r="A866" s="1"/>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1">
       <c r="A867" s="1"/>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1">
       <c r="A868" s="1"/>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1">
       <c r="A869" s="1"/>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1">
       <c r="A870" s="1"/>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1">
       <c r="A871" s="1"/>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1">
       <c r="A872" s="1"/>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1">
       <c r="A873" s="1"/>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1">
       <c r="A874" s="1"/>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1">
       <c r="A875" s="1"/>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1">
       <c r="A876" s="1"/>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1">
       <c r="A877" s="1"/>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1">
       <c r="A878" s="1"/>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1">
       <c r="A879" s="1"/>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1">
       <c r="A880" s="1"/>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1">
       <c r="A881" s="1"/>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1">
       <c r="A882" s="1"/>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1">
       <c r="A883" s="1"/>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1">
       <c r="A884" s="1"/>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1">
       <c r="A885" s="1"/>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1">
       <c r="A886" s="1"/>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1">
       <c r="A887" s="1"/>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1">
       <c r="A888" s="1"/>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1">
       <c r="A889" s="1"/>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1">
       <c r="A890" s="1"/>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1">
       <c r="A891" s="1"/>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1">
       <c r="A892" s="1"/>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1">
       <c r="A893" s="1"/>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1">
       <c r="A894" s="1"/>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1">
       <c r="A895" s="1"/>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1">
       <c r="A896" s="1"/>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1">
       <c r="A897" s="1"/>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1">
       <c r="A898" s="1"/>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1">
       <c r="A899" s="1"/>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1">
       <c r="A900" s="1"/>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1">
       <c r="A901" s="1"/>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1">
       <c r="A902" s="1"/>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1">
       <c r="A903" s="1"/>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1">
       <c r="A904" s="1"/>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1">
       <c r="A905" s="1"/>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1">
       <c r="A906" s="1"/>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1">
       <c r="A907" s="1"/>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1">
       <c r="A908" s="1"/>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1">
       <c r="A909" s="1"/>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1">
       <c r="A910" s="1"/>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1">
       <c r="A911" s="1"/>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1">
       <c r="A912" s="1"/>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1">
       <c r="A913" s="1"/>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1">
       <c r="A914" s="1"/>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1">
       <c r="A915" s="1"/>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1">
       <c r="A916" s="1"/>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1">
       <c r="A917" s="1"/>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1">
       <c r="A918" s="1"/>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1">
       <c r="A919" s="1"/>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1">
       <c r="A920" s="1"/>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1">
       <c r="A921" s="1"/>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1">
       <c r="A922" s="1"/>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1">
       <c r="A923" s="1"/>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1">
       <c r="A924" s="1"/>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1">
       <c r="A925" s="1"/>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1">
       <c r="A926" s="1"/>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1">
       <c r="A927" s="1"/>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1">
       <c r="A928" s="1"/>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1">
       <c r="A929" s="1"/>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1">
       <c r="A930" s="1"/>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1">
       <c r="A931" s="1"/>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1">
       <c r="A932" s="1"/>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1">
       <c r="A933" s="1"/>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1">
       <c r="A934" s="1"/>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1">
       <c r="A935" s="1"/>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1">
       <c r="A936" s="1"/>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1">
       <c r="A937" s="1"/>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1">
       <c r="A938" s="1"/>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1">
       <c r="A939" s="1"/>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1">
       <c r="A940" s="1"/>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1">
       <c r="A941" s="1"/>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1">
       <c r="A942" s="1"/>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1">
       <c r="A943" s="1"/>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1">
       <c r="A944" s="1"/>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1">
       <c r="A945" s="1"/>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1">
       <c r="A946" s="1"/>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1">
       <c r="A947" s="1"/>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1">
       <c r="A948" s="1"/>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1">
       <c r="A949" s="1"/>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1">
       <c r="A950" s="1"/>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1">
       <c r="A951" s="1"/>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1">
       <c r="A952" s="1"/>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1">
       <c r="A953" s="1"/>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1">
       <c r="A954" s="1"/>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1">
       <c r="A955" s="1"/>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1">
       <c r="A956" s="1"/>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1">
       <c r="A957" s="1"/>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1">
       <c r="A958" s="1"/>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1">
       <c r="A959" s="1"/>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1">
       <c r="A960" s="1"/>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1">
       <c r="A961" s="1"/>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1">
       <c r="A962" s="1"/>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1">
       <c r="A963" s="1"/>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1">
       <c r="A964" s="1"/>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1">
       <c r="A965" s="1"/>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1">
       <c r="A966" s="1"/>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1">
       <c r="A967" s="1"/>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1">
       <c r="A968" s="1"/>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1">
       <c r="A969" s="1"/>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1">
       <c r="A970" s="1"/>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1">
       <c r="A971" s="1"/>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1">
       <c r="A972" s="1"/>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1">
       <c r="A973" s="1"/>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1">
       <c r="A974" s="1"/>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1">
       <c r="A975" s="1"/>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1">
       <c r="A976" s="1"/>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1">
       <c r="A977" s="1"/>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:1">
       <c r="A978" s="1"/>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:1">
       <c r="A979" s="1"/>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:1">
       <c r="A980" s="1"/>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1">
       <c r="A981" s="1"/>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:1">
       <c r="A982" s="1"/>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:1">
       <c r="A983" s="1"/>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:1">
       <c r="A984" s="1"/>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:1">
       <c r="A985" s="1"/>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:1">
       <c r="A986" s="1"/>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:1">
       <c r="A987" s="1"/>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1">
       <c r="A988" s="1"/>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:1">
       <c r="A989" s="1"/>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:1">
       <c r="A990" s="1"/>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:1">
       <c r="A991" s="1"/>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:1">
       <c r="A992" s="1"/>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:1">
       <c r="A993" s="1"/>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:1">
       <c r="A994" s="1"/>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1">
       <c r="A995" s="1"/>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:1">
       <c r="A996" s="1"/>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:1">
       <c r="A997" s="1"/>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:1">
       <c r="A998" s="1"/>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:1">
       <c r="A999" s="1"/>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:1">
       <c r="A1000" s="1"/>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:1">
       <c r="A1001" s="1"/>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:1">
       <c r="A1002" s="1"/>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:1">
       <c r="A1003" s="1"/>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:1">
       <c r="A1004" s="1"/>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:1">
       <c r="A1005" s="1"/>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:1">
       <c r="A1006" s="1"/>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:1">
       <c r="A1007" s="1"/>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:1">
       <c r="A1008" s="1"/>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:1">
       <c r="A1009" s="1"/>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:1">
       <c r="A1010" s="1"/>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:1">
       <c r="A1011" s="1"/>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:1">
       <c r="A1012" s="1"/>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:1">
       <c r="A1013" s="1"/>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:1">
       <c r="A1014" s="1"/>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:1">
       <c r="A1015" s="1"/>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:1">
       <c r="A1016" s="1"/>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:1">
       <c r="A1017" s="1"/>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:1">
       <c r="A1018" s="1"/>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:1">
       <c r="A1019" s="1"/>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:1">
       <c r="A1020" s="1"/>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:1">
       <c r="A1021" s="1"/>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:1">
       <c r="A1022" s="1"/>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:1">
       <c r="A1023" s="1"/>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:1">
       <c r="A1024" s="1"/>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:1">
       <c r="A1025" s="1"/>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:1">
       <c r="A1026" s="1"/>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:1">
       <c r="A1027" s="1"/>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:1">
       <c r="A1028" s="1"/>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:1">
       <c r="A1029" s="1"/>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:1">
       <c r="A1030" s="1"/>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:1">
       <c r="A1031" s="1"/>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:1">
       <c r="A1032" s="1"/>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:1">
       <c r="A1033" s="1"/>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:1">
       <c r="A1034" s="1"/>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:1">
       <c r="A1035" s="1"/>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:1">
       <c r="A1036" s="1"/>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:1">
       <c r="A1037" s="1"/>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:1">
       <c r="A1038" s="1"/>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:1">
       <c r="A1039" s="1"/>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:1">
       <c r="A1040" s="1"/>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:1">
       <c r="A1041" s="1"/>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:1">
       <c r="A1042" s="1"/>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:1">
       <c r="A1043" s="1"/>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:1">
       <c r="A1044" s="1"/>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:1">
       <c r="A1045" s="1"/>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:1">
       <c r="A1046" s="1"/>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:1">
       <c r="A1047" s="1"/>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:1">
       <c r="A1048" s="1"/>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:1">
       <c r="A1049" s="1"/>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:1">
       <c r="A1050" s="1"/>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:1">
       <c r="A1051" s="1"/>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:1">
       <c r="A1052" s="1"/>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:1">
       <c r="A1053" s="1"/>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:1">
       <c r="A1054" s="1"/>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:1">
       <c r="A1055" s="1"/>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:1">
       <c r="A1056" s="1"/>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:1">
       <c r="A1057" s="1"/>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:1">
       <c r="A1058" s="1"/>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:1">
       <c r="A1059" s="1"/>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:1">
       <c r="A1060" s="1"/>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:1">
       <c r="A1061" s="1"/>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:1">
       <c r="A1062" s="1"/>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:1">
       <c r="A1063" s="1"/>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:1">
       <c r="A1064" s="1"/>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:1">
       <c r="A1065" s="1"/>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:1">
       <c r="A1066" s="1"/>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:1">
       <c r="A1067" s="1"/>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:1">
       <c r="A1068" s="1"/>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:1">
       <c r="A1069" s="1"/>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:1">
       <c r="A1070" s="1"/>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:1">
       <c r="A1071" s="1"/>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:1">
       <c r="A1072" s="1"/>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:1">
       <c r="A1073" s="1"/>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:1">
       <c r="A1074" s="1"/>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:1">
       <c r="A1075" s="1"/>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:1">
       <c r="A1076" s="1"/>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:1">
       <c r="A1077" s="1"/>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:1">
       <c r="A1078" s="1"/>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:1">
       <c r="A1079" s="1"/>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:1">
       <c r="A1080" s="1"/>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:1">
       <c r="A1081" s="1"/>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:1">
       <c r="A1082" s="1"/>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:1">
       <c r="A1083" s="1"/>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:1">
       <c r="A1084" s="1"/>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:1">
       <c r="A1085" s="1"/>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:1">
       <c r="A1086" s="1"/>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:1">
       <c r="A1087" s="1"/>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:1">
       <c r="A1088" s="1"/>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:1">
       <c r="A1089" s="1"/>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:1">
       <c r="A1090" s="1"/>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:1">
       <c r="A1091" s="1"/>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:1">
       <c r="A1092" s="1"/>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:1">
       <c r="A1093" s="1"/>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:1">
       <c r="A1094" s="1"/>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:1">
       <c r="A1095" s="1"/>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:1">
       <c r="A1096" s="1"/>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:1">
       <c r="A1097" s="1"/>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:1">
       <c r="A1098" s="1"/>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:1">
       <c r="A1099" s="1"/>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:1">
       <c r="A1100" s="1"/>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:1">
       <c r="A1101" s="1"/>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:1">
       <c r="A1102" s="1"/>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:1">
       <c r="A1103" s="1"/>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:1">
       <c r="A1104" s="1"/>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:1">
       <c r="A1105" s="1"/>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:1">
       <c r="A1106" s="1"/>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:1">
       <c r="A1107" s="1"/>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:1">
       <c r="A1108" s="1"/>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:1">
       <c r="A1109" s="1"/>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:1">
       <c r="A1110" s="1"/>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:1">
       <c r="A1111" s="1"/>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:1">
       <c r="A1112" s="1"/>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:1">
       <c r="A1113" s="1"/>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:1">
       <c r="A1114" s="1"/>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:1">
       <c r="A1115" s="1"/>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:1">
       <c r="A1116" s="1"/>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:1">
       <c r="A1117" s="1"/>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:1">
       <c r="A1118" s="1"/>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:1">
       <c r="A1119" s="1"/>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:1">
       <c r="A1120" s="1"/>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:1">
       <c r="A1121" s="1"/>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:1">
       <c r="A1122" s="1"/>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:1">
       <c r="A1123" s="1"/>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:1">
       <c r="A1124" s="1"/>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:1">
       <c r="A1125" s="1"/>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:1">
       <c r="A1126" s="1"/>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:1">
       <c r="A1127" s="1"/>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:1">
       <c r="A1128" s="1"/>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:1">
       <c r="A1129" s="1"/>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:1">
       <c r="A1130" s="1"/>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:1">
       <c r="A1131" s="1"/>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:1">
       <c r="A1132" s="1"/>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:1">
       <c r="A1133" s="1"/>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:1">
       <c r="A1134" s="1"/>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:1">
       <c r="A1135" s="1"/>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:1">
       <c r="A1136" s="1"/>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:1">
       <c r="A1137" s="1"/>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:1">
       <c r="A1138" s="1"/>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:1">
       <c r="A1139" s="1"/>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:1">
       <c r="A1140" s="1"/>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:1">
       <c r="A1141" s="1"/>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:1">
       <c r="A1142" s="1"/>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:1">
       <c r="A1143" s="1"/>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:1">
       <c r="A1144" s="1"/>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:1">
       <c r="A1145" s="1"/>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:1">
       <c r="A1146" s="1"/>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:1">
       <c r="A1147" s="1"/>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:1">
       <c r="A1148" s="1"/>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:1">
       <c r="A1149" s="1"/>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:1">
       <c r="A1150" s="1"/>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:1">
       <c r="A1151" s="1"/>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:1">
       <c r="A1152" s="1"/>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:1">
       <c r="A1153" s="1"/>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:1">
       <c r="A1154" s="1"/>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:1">
       <c r="A1155" s="1"/>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:1">
       <c r="A1156" s="1"/>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:1">
       <c r="A1157" s="1"/>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:1">
       <c r="A1158" s="1"/>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:1">
       <c r="A1159" s="1"/>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:1">
       <c r="A1160" s="1"/>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:1">
       <c r="A1161" s="1"/>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:1">
       <c r="A1162" s="1"/>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:1">
       <c r="A1163" s="1"/>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:1">
       <c r="A1164" s="1"/>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:1">
       <c r="A1165" s="1"/>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:1">
       <c r="A1166" s="1"/>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:1">
       <c r="A1167" s="1"/>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:1">
       <c r="A1168" s="1"/>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:1">
       <c r="A1169" s="1"/>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:1">
       <c r="A1170" s="1"/>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:1">
       <c r="A1171" s="1"/>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:1">
       <c r="A1172" s="1"/>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:1">
       <c r="A1173" s="1"/>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:1">
       <c r="A1174" s="1"/>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:1">
       <c r="A1175" s="1"/>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:1">
       <c r="A1176" s="1"/>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:1">
       <c r="A1177" s="1"/>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:1">
       <c r="A1178" s="1"/>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:1">
       <c r="A1179" s="1"/>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:1">
       <c r="A1180" s="1"/>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:1">
       <c r="A1181" s="1"/>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:1">
       <c r="A1182" s="1"/>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:1">
       <c r="A1183" s="1"/>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:1">
       <c r="A1184" s="1"/>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:1">
       <c r="A1185" s="1"/>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:1">
       <c r="A1186" s="1"/>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:1">
       <c r="A1187" s="1"/>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:1">
       <c r="A1188" s="1"/>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:1">
       <c r="A1189" s="1"/>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:1">
       <c r="A1190" s="1"/>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:1">
       <c r="A1191" s="1"/>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:1">
       <c r="A1192" s="1"/>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:1">
       <c r="A1193" s="1"/>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:1">
       <c r="A1194" s="1"/>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:1">
       <c r="A1195" s="1"/>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:1">
       <c r="A1196" s="1"/>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:1">
       <c r="A1197" s="1"/>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:1">
       <c r="A1198" s="1"/>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:1">
       <c r="A1199" s="1"/>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:1">
       <c r="A1200" s="1"/>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:1">
       <c r="A1201" s="1"/>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:1">
       <c r="A1202" s="1"/>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:1">
       <c r="A1203" s="1"/>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:1">
       <c r="A1204" s="1"/>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:1">
       <c r="A1205" s="1"/>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:1">
       <c r="A1206" s="1"/>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:1">
       <c r="A1207" s="1"/>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:1">
       <c r="A1208" s="1"/>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:1">
       <c r="A1209" s="1"/>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:1">
       <c r="A1210" s="1"/>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:1">
       <c r="A1211" s="1"/>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:1">
       <c r="A1212" s="1"/>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:1">
       <c r="A1213" s="1"/>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:1">
       <c r="A1214" s="1"/>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:1">
       <c r="A1215" s="1"/>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:1">
       <c r="A1216" s="1"/>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:1">
       <c r="A1217" s="1"/>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:1">
       <c r="A1218" s="1"/>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:1">
       <c r="A1219" s="1"/>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:1">
       <c r="A1220" s="1"/>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:1">
       <c r="A1221" s="1"/>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:1">
       <c r="A1222" s="1"/>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:1">
       <c r="A1223" s="1"/>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:1">
       <c r="A1224" s="1"/>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:1">
       <c r="A1225" s="1"/>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:1">
       <c r="A1226" s="1"/>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:1">
       <c r="A1227" s="1"/>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:1">
       <c r="A1228" s="1"/>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:1">
       <c r="A1229" s="1"/>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:1">
       <c r="A1230" s="1"/>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:1">
       <c r="A1231" s="1"/>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:1">
       <c r="A1232" s="1"/>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:1">
       <c r="A1233" s="1"/>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:1">
       <c r="A1234" s="1"/>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:1">
       <c r="A1235" s="1"/>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:1">
       <c r="A1236" s="1"/>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:1">
       <c r="A1237" s="1"/>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:1">
       <c r="A1238" s="1"/>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:1">
       <c r="A1239" s="1"/>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:1">
       <c r="A1240" s="1"/>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:1">
       <c r="A1241" s="1"/>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:1">
       <c r="A1242" s="1"/>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:1">
       <c r="A1243" s="1"/>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:1">
       <c r="A1244" s="1"/>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:1">
       <c r="A1245" s="1"/>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:1">
       <c r="A1246" s="1"/>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:1">
       <c r="A1247" s="1"/>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:1">
       <c r="A1248" s="1"/>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:1">
       <c r="A1249" s="1"/>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:1">
       <c r="A1250" s="1"/>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:1">
       <c r="A1251" s="1"/>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:1">
       <c r="A1252" s="1"/>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:1">
       <c r="A1253" s="1"/>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:1">
       <c r="A1254" s="1"/>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:1">
       <c r="A1255" s="1"/>
     </row>
   </sheetData>
@@ -10445,7 +10559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10458,7 +10572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EnglishTranslation-master/Rank Update Project/863-1255.xlsx
+++ b/EnglishTranslation-master/Rank Update Project/863-1255.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="909">
   <si>
     <t>노브리어 숲 깊숙한 곳에서 누군가가 당신과의 만남을 기다리고 있습니다.</t>
   </si>
@@ -2379,36 +2379,15 @@
     <t>Neringa is waiting for you to finish your preparations.</t>
   </si>
   <si>
-    <t>Defeat the intruding demons.</t>
-  </si>
-  <si>
-    <t>Defeat the nearby demons.</t>
-  </si>
-  <si>
-    <t>Retrieve the scattered records.</t>
-  </si>
-  <si>
     <t>Neringa directed you to eliminate the intruding demons to earn Goddess Vaivora's trust.</t>
   </si>
   <si>
-    <t>Underneath the shadow</t>
-  </si>
-  <si>
     <t>There is someone deep within Nobreer Forest waiting to meet with you.</t>
   </si>
   <si>
-    <t>Neringa needs a revelator’s help in fulfilling Laima’s revelation. Let’s listen to her plan.</t>
-  </si>
-  <si>
-    <t>Neringa explained the role of the revelator to you. Talk to her to get things going.</t>
-  </si>
-  <si>
     <t>You've agreed to work together with Neringa in accordance with Goddess Laima's revelation. Take the portal to Sausys Room 9 in the Fantasy Library.</t>
   </si>
   <si>
-    <t>Converse with Goddess Vaivora.</t>
-  </si>
-  <si>
     <t>You have entered Sausys Room 9. Goddess Vaivora is waiting to command you.</t>
   </si>
   <si>
@@ -2424,22 +2403,346 @@
     <t>You have retrieved enough records. Return to Neringa to get the next step of the plan.</t>
   </si>
   <si>
-    <t>Fate that is set in stone</t>
-  </si>
-  <si>
-    <t>Remove the demon's Kupole traps.</t>
-  </si>
-  <si>
     <t>Neringa is asking you to remove the traps placed by the demons that invaded the library's Sausys Room 9, in an effort to impede Vaivora's Kupoles. She tells you that you'll be able to earn Goddess Vaivora's trust if you bear the danger and help with the Kupoles' assignments.</t>
   </si>
   <si>
     <t>Converse with Kupole Rugile.</t>
   </si>
   <si>
-    <t>Neringa is waiting for you in Sausys room 10.</t>
-  </si>
-  <si>
     <t>Enter the Fantasy Library</t>
+  </si>
+  <si>
+    <t>Neringa needs a Revelator’s help in fulfilling Laima’s revelation. Let’s listen to her plan.</t>
+  </si>
+  <si>
+    <t>Neringa explained the role of the Revelator to you. Talk to her to get things going.</t>
+  </si>
+  <si>
+    <t>Fate that is Set in Stone</t>
+  </si>
+  <si>
+    <t>Converse with Goddess Vaivora</t>
+  </si>
+  <si>
+    <t>Defeat the Intruding Demons</t>
+  </si>
+  <si>
+    <t>Defeat the Nearby Demons</t>
+  </si>
+  <si>
+    <t>Retrieve the Scattered Records</t>
+  </si>
+  <si>
+    <t>You have removed enough traps set by demons to impede the Kupoles. Neringa asks you to report your success to Kupole Rugile then help Rugile.</t>
+  </si>
+  <si>
+    <t>Kupole Rugile is waiting for you in Sausys Room 9.</t>
+  </si>
+  <si>
+    <t>Remove the Demons' Kupole Traps</t>
+  </si>
+  <si>
+    <t>Underneath the Shadow</t>
+  </si>
+  <si>
+    <t>You have defeated enough demons. Report to Kupole Rugile.</t>
+  </si>
+  <si>
+    <t>You have finished all of Kupole Rugile's requests according to Neringa's directions. Return to Neringa.</t>
+  </si>
+  <si>
+    <t>Destroy Contaminated Crystals</t>
+  </si>
+  <si>
+    <t>You have successfully fulfilled the task given by Neringa to destroy the contaminated crystals. Report back to Neringa.</t>
+  </si>
+  <si>
+    <t>Speak with Kupole Saya</t>
+  </si>
+  <si>
+    <t>You have defeated enough demons according to Neringa's instructions. Visit Kupole Saya.</t>
+  </si>
+  <si>
+    <t>Kupole Saya is waiting for you in Sausys Room 10.</t>
+  </si>
+  <si>
+    <t>Trasium Piece Retrieval</t>
+  </si>
+  <si>
+    <t>Kupole Saya requested you to retrieve Trasium Pieces to restore the scacred artifact.</t>
+  </si>
+  <si>
+    <t>You have collected enough Trasium Pieces. Return to Kupole Saya to deliver them.</t>
+  </si>
+  <si>
+    <t>Kupole Saya says Neriga is looking for you. Return to Neringa.</t>
+  </si>
+  <si>
+    <t>Dispell the Magic Prison</t>
+  </si>
+  <si>
+    <t>Speak with Kupole Ouida</t>
+  </si>
+  <si>
+    <t>You have rescued Kupole Ouida from the magic prison. Speak to Kupole Ouida.</t>
+  </si>
+  <si>
+    <t>Kupole Ouida is waiting for you in Sausys Room 10.</t>
+  </si>
+  <si>
+    <t>Defend the Crystals of Protection</t>
+  </si>
+  <si>
+    <t>Defeat the demons that are trying to destroy the crystals of protection.</t>
+  </si>
+  <si>
+    <t>You have defeated all the demons that were trying to destroy the crystals of protection. Neringa is looking for you. Speak to Neringa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Necessary Mistake </t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Valandis Room 2.</t>
+  </si>
+  <si>
+    <t>You have finally attracted the attention of Goddess Vaivora. Speak with Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>Speak to Kupole Litae</t>
+  </si>
+  <si>
+    <t>Kupole Litae has appeared and is looking for you.</t>
+  </si>
+  <si>
+    <t>Kupole Litae is looking for you in Valandis Room 2.</t>
+  </si>
+  <si>
+    <t>Recharge the Magical Installation</t>
+  </si>
+  <si>
+    <t>Kupole Litae says that Goddess Vaivora needs the magical installation charged up for Her to seal Giltine. The charged magical installation will deliver itself to the needed location. Charge up the magical installation.</t>
+  </si>
+  <si>
+    <t>You have charged the magical installation. Report to Kupole Litae.</t>
+  </si>
+  <si>
+    <t>Neringa directed you to meet Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>Speak to Kupole Danute</t>
+  </si>
+  <si>
+    <t>Kupole Danute is waiting for you in Valandis Room 2.</t>
+  </si>
+  <si>
+    <t>Retrieval of Tools to Maintain Magical Device</t>
+  </si>
+  <si>
+    <t>Unrecorded History</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Valandis Room 3.</t>
+  </si>
+  <si>
+    <t>Safeguard the Crystals of Protection</t>
+  </si>
+  <si>
+    <t>You have defended the crystals of protection. Report to Kupole Danute.</t>
+  </si>
+  <si>
+    <t>Altar for the Sealing Ceremony</t>
+  </si>
+  <si>
+    <t>Neringa directed you to listen to Goddess Vaivora's plan and follow her orders.</t>
+  </si>
+  <si>
+    <t>You have listened to the plan of Goddess Vaivora. Consult with Neringa before following Vaivora's orders.</t>
+  </si>
+  <si>
+    <t>Goddess Vaivora is waiting for you in Valandis Room 3.</t>
+  </si>
+  <si>
+    <t>Protect the Blunod Destruction Device</t>
+  </si>
+  <si>
+    <t>Goddess Vaivora has asked you to protect the Blunod destruction device so that it can operate safely.</t>
+  </si>
+  <si>
+    <t>You have defeated all the demons that were attacking the Blunod destruction device. Report to Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>Collection of Large Magic Circles</t>
+  </si>
+  <si>
+    <t>Use the Warp Device</t>
+  </si>
+  <si>
+    <t>Defeat the Fused Hauberk</t>
+  </si>
+  <si>
+    <t>Hauberk has fused into one being. His power isn't stable, but it is recovering. Defeat Demon Lord Hauberk using the converted facility before he becomes more powerful.</t>
+  </si>
+  <si>
+    <t>Goddess Vaivora asked you to collect the large magic circles needed to recharge the Phliceed destruction device. Vaivora told you to ask Neringa how to use them once you have collected enough large magic circles.</t>
+  </si>
+  <si>
+    <t>Goddess Vaivora asked you to help Kupole Skaia with activating the Valandar destruction device. First, meet with Kupole Skaia.</t>
+  </si>
+  <si>
+    <t>Kupole Skaia says to activate the Valandar destruction device the nearby demons need to be defeated. Activate the destruction device after defeating the demons.</t>
+  </si>
+  <si>
+    <t>Valandar Destruction Device Activation</t>
+  </si>
+  <si>
+    <t>Phliceed Destruction Device Operation</t>
+  </si>
+  <si>
+    <t>You have successfully operated the Phliceed destruction device. Report to Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>Neringa told you the final plan and the method to operate the Phliceed destruction device in Valandis Room 3. Operate the Phliceed destruction device.</t>
+  </si>
+  <si>
+    <t>Kupole Skaia asked you to activate the Valandar destruction device. Activate the destruction device then protect the device from the demons for a certain time.</t>
+  </si>
+  <si>
+    <t>You have activated the Valandar destruction device. Return to Goddess Vaivora.</t>
+  </si>
+  <si>
+    <t>Deliver Supply Box</t>
+  </si>
+  <si>
+    <t>Shadow of the Black Wing</t>
+  </si>
+  <si>
+    <t>Pursuit of Giltine</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Valandis Room 91.</t>
+  </si>
+  <si>
+    <t>Facing Demon Lord Giltine</t>
+  </si>
+  <si>
+    <t>Destruction of Demon Dimension Gate</t>
+  </si>
+  <si>
+    <t>Neringa says Giltine is nearing the Revelation. Stay close and protect Nergina while pursuing Giltine.</t>
+  </si>
+  <si>
+    <t>You have fulfilled Laima's prediction according to Neringa's suggestion. Inform Goddess Vaivora of the outcome.</t>
+  </si>
+  <si>
+    <t>Defeat Demons with Magic Signals</t>
+  </si>
+  <si>
+    <t>Speak with Schielgailla</t>
+  </si>
+  <si>
+    <t>You have defeated enough demons with the magic signal. Report to Kupole Rugile.</t>
+  </si>
+  <si>
+    <t>You have recovered enough unidentified records. Deliver it to Kupole Rugile.</t>
+  </si>
+  <si>
+    <t>The Beholder has disappeared. Ask Neringa about the next step of the plan.</t>
+  </si>
+  <si>
+    <t>Conversation with the Beholder</t>
+  </si>
+  <si>
+    <t>Prevent the demons from invading.</t>
+  </si>
+  <si>
+    <t>Kupole Rugile is asking you to use the dimensional detection scroll to find and destroy the demons' gateways.</t>
+  </si>
+  <si>
+    <t>You have destroyed enough gateways. Report back to Kupole Rugile.</t>
+  </si>
+  <si>
+    <t>According to Kupole Rugile, her powers aren’t enough to defeat the demons alone. You can lift her burden by defeating the demons that invaded Sausys Room 9.</t>
+  </si>
+  <si>
+    <t>Neringa is waiting for you in Sausys Room 10.</t>
+  </si>
+  <si>
+    <t>Neringa is directing you to destroy the contaminated crystals placed by demons to weaken the defense of the Fantasy Library. If the contaminated crystals are left alone, the Kupoles will weaken and Beholder will learn of Neringa's existance.</t>
+  </si>
+  <si>
+    <t>Neringa told you to get Kupole Saya's attention by defeating the demons endangering her.</t>
+  </si>
+  <si>
+    <t>Neringa tells you that Vaivora's main helper, Kupole Ouida is being caged inside a magic prison. Dispell the magic prison and rescue Kupole Ouida.</t>
+  </si>
+  <si>
+    <t>Meeting the Beholder Face to Face</t>
+  </si>
+  <si>
+    <t>As Neringa stated, the Beholder has appeared. Listen to his story.</t>
+  </si>
+  <si>
+    <t>Goddess Vaivora has left orders for you. Consult with Neringa.</t>
+  </si>
+  <si>
+    <t>Neringa says that if you defeat the demons, Litae will appear and ask for your help. Dispatch the demons.</t>
+  </si>
+  <si>
+    <t>Collect Nobrenal Power</t>
+  </si>
+  <si>
+    <t>Neringa says that she needs Nobrenal power to protect herself against Giltine. Collect the Nobrenal power in Valandis Room 2.</t>
+  </si>
+  <si>
+    <t>You have collected enough Nobrenal power. Deliver it to Neringa.</t>
+  </si>
+  <si>
+    <t>Kupole Danute says that for Vaivora's sealing plan to work, the magical device must be maintained. However, she cannot maintain the devices herself, so she has tasked you to find dimension essences around the area, defeat the incoming demons, and retrieve their magic power by using the dimension essences.</t>
+  </si>
+  <si>
+    <t>You have retrieved enough tools to maintain the device. Deliver them to Kupole Danute.</t>
+  </si>
+  <si>
+    <t>Kupole Danute says to have Vaivora's sealing plan succeed in Valandis Room 2, the crystals of protection must be defended. Keep the demons that are attacking the crystals of protection as far away as possible and defend the crystals.</t>
+  </si>
+  <si>
+    <t>Giltine has not fallen for the trap prepared by Goddess Vaivora. Defeat the Templeshooter that has shown up instead of Giltine and retrieve the Record of Giltine.</t>
+  </si>
+  <si>
+    <t>You have defeated the Templeshooter and acquired the Record of Giltine. Consult Neringa about the next step of the plan.</t>
+  </si>
+  <si>
+    <t>Speak to Kupole Skaia</t>
+  </si>
+  <si>
+    <t>Kupole Skaia is waiting for you in Valandis Room 3.</t>
+  </si>
+  <si>
+    <t>Defeat Demon Lord Reucy</t>
+  </si>
+  <si>
+    <t>Neringa asked you to disguise the Balanos destruction device to look like it was destroyed by demons, according to the plan. Activate the Balanos destruction device, and when Demon Lord Reucy shows up, defeat them near the device. The death of Demon Lord Reucy will cause a release of magic power which will overload the destruction device, causing it to explode.</t>
+  </si>
+  <si>
+    <t>As planned, the Balanos destruction device exploded upon Demon Lord Reucy's death. Report to Neringa.</t>
+  </si>
+  <si>
+    <t>Neringa asked you to destroy the demon dimension gate before facing Demon Lord Giltine. Before seeing Neringa again, destroy all the demon dimensional gates.</t>
+  </si>
+  <si>
+    <t>Ultimately, Demon Lord Giltine has arrived at the location of the Revelation. Face Giltine and fulfill Laima's prediction and carry out the plan.</t>
+  </si>
+  <si>
+    <t>Kupole Rugile asked you to defeat the demons that she believes are creating the demons' entryways. Defeat the demons that have the magic signal on them.</t>
+  </si>
+  <si>
+    <t>Kupole Rugile says that the invading demons have taken records that have not yet been identified. Defeat the demons and recover the unidentified records.</t>
+  </si>
+  <si>
+    <t>You have collected enough magic circles. Go to Neringa to listen to her explanation on how to use them.</t>
+  </si>
+  <si>
+    <t>Use the warp device to go to Hauberk's location.</t>
   </si>
 </sst>
 </file>
@@ -2798,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2813,7 +3116,7 @@
         <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2828,7 +3131,7 @@
         <v>394</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2843,7 +3146,7 @@
         <v>395</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -2873,7 +3176,7 @@
         <v>397</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2888,7 +3191,7 @@
         <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2903,7 +3206,7 @@
         <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -2918,7 +3221,7 @@
         <v>400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -2933,7 +3236,7 @@
         <v>401</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2948,7 +3251,7 @@
         <v>402</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2963,7 +3266,7 @@
         <v>403</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -2978,7 +3281,7 @@
         <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -2993,7 +3296,7 @@
         <v>405</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -3008,7 +3311,7 @@
         <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -3023,7 +3326,7 @@
         <v>407</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -3038,7 +3341,7 @@
         <v>408</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3053,7 +3356,7 @@
         <v>409</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -3068,7 +3371,7 @@
         <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -3083,7 +3386,7 @@
         <v>411</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -3098,7 +3401,7 @@
         <v>412</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
@@ -3112,7 +3415,9 @@
       <c r="A21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,7 +3430,9 @@
       <c r="A22" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3138,7 +3445,9 @@
       <c r="A23" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>878</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3151,7 +3460,9 @@
       <c r="A24" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>879</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3164,7 +3475,9 @@
       <c r="A25" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>880</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3177,7 +3490,9 @@
       <c r="A26" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>881</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3190,7 +3505,9 @@
       <c r="A27" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>809</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3203,7 +3520,9 @@
       <c r="A28" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3217,7 +3536,7 @@
         <v>421</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -3232,7 +3551,7 @@
         <v>422</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>806</v>
+        <v>882</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
@@ -3246,7 +3565,9 @@
       <c r="A31" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>811</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3259,7 +3580,9 @@
       <c r="A32" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3272,7 +3595,9 @@
       <c r="A33" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3285,7 +3610,9 @@
       <c r="A34" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3298,7 +3625,9 @@
       <c r="A35" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3311,7 +3640,9 @@
       <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>814</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3324,7 +3655,9 @@
       <c r="A37" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>815</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3337,7 +3670,9 @@
       <c r="A38" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>816</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3685,9 @@
       <c r="A39" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>817</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3363,7 +3700,9 @@
       <c r="A40" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>818</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3376,7 +3715,9 @@
       <c r="A41" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>819</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3389,7 +3730,9 @@
       <c r="A42" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>820</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3402,7 +3745,9 @@
       <c r="A43" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>885</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3415,7 +3760,9 @@
       <c r="A44" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>821</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3428,7 +3775,9 @@
       <c r="A45" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>822</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3441,7 +3790,9 @@
       <c r="A46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3454,7 +3805,9 @@
       <c r="A47" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3467,7 +3820,9 @@
       <c r="A48" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>825</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3480,7 +3835,9 @@
       <c r="A49" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>826</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
@@ -3493,7 +3850,9 @@
       <c r="A50" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>886</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
@@ -3506,7 +3865,9 @@
       <c r="A51" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>887</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3519,7 +3880,9 @@
       <c r="A52" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>876</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3532,7 +3895,9 @@
       <c r="A53" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>52</v>
       </c>
@@ -3545,7 +3910,9 @@
       <c r="A54" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>828</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>53</v>
       </c>
@@ -3558,7 +3925,9 @@
       <c r="A55" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>829</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>54</v>
       </c>
@@ -3571,7 +3940,9 @@
       <c r="A56" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>888</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
@@ -3584,7 +3955,9 @@
       <c r="A57" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>889</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3597,7 +3970,9 @@
       <c r="A58" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3610,7 +3985,9 @@
       <c r="A59" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3623,7 +4000,9 @@
       <c r="A60" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>832</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3636,7 +4015,9 @@
       <c r="A61" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>833</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3649,7 +4030,9 @@
       <c r="A62" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>834</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3662,7 +4045,9 @@
       <c r="A63" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>835</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3675,7 +4060,9 @@
       <c r="A64" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>890</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3688,7 +4075,9 @@
       <c r="A65" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>891</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,7 +4090,9 @@
       <c r="A66" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>892</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3714,7 +4105,9 @@
       <c r="A67" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3727,7 +4120,9 @@
       <c r="A68" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>837</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3740,7 +4135,9 @@
       <c r="A69" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>838</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3753,7 +4150,9 @@
       <c r="A70" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>839</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3766,7 +4165,9 @@
       <c r="A71" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3779,7 +4180,9 @@
       <c r="A72" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>894</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3792,7 +4195,9 @@
       <c r="A73" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3805,7 +4210,9 @@
       <c r="A74" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3818,7 +4225,9 @@
       <c r="A75" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3831,7 +4240,9 @@
       <c r="A76" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>844</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3844,7 +4255,9 @@
       <c r="A77" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3857,7 +4270,9 @@
       <c r="A78" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>897</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3870,7 +4285,9 @@
       <c r="A79" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>840</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3883,7 +4300,9 @@
       <c r="A80" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>841</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3896,7 +4315,9 @@
       <c r="A81" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>80</v>
       </c>
@@ -3909,7 +4330,9 @@
       <c r="A82" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>846</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>81</v>
       </c>
@@ -3922,7 +4345,9 @@
       <c r="A83" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>847</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3935,7 +4360,9 @@
       <c r="A84" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3948,7 +4375,9 @@
       <c r="A85" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>849</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>84</v>
       </c>
@@ -3961,7 +4390,9 @@
       <c r="A86" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>850</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>85</v>
       </c>
@@ -3974,7 +4405,9 @@
       <c r="A87" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>851</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>86</v>
       </c>
@@ -3987,7 +4420,9 @@
       <c r="A88" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>855</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>87</v>
       </c>
@@ -4000,7 +4435,9 @@
       <c r="A89" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>907</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>88</v>
       </c>
@@ -4013,7 +4450,9 @@
       <c r="A90" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>859</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
@@ -4026,7 +4465,9 @@
       <c r="A91" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>861</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4039,7 +4480,9 @@
       <c r="A92" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>860</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>91</v>
       </c>
@@ -4052,7 +4495,9 @@
       <c r="A93" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>898</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4065,7 +4510,9 @@
       <c r="A94" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4078,7 +4525,9 @@
       <c r="A95" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>899</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4091,7 +4540,9 @@
       <c r="A96" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>857</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4104,7 +4555,9 @@
       <c r="A97" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>858</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4117,7 +4570,9 @@
       <c r="A98" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>862</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4130,7 +4585,9 @@
       <c r="A99" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>863</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4143,7 +4600,9 @@
       <c r="A100" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4156,7 +4615,9 @@
       <c r="A101" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>901</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4169,7 +4630,9 @@
       <c r="A102" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4182,7 +4645,9 @@
       <c r="A103" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>867</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4195,7 +4660,9 @@
       <c r="A104" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>865</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4208,7 +4675,9 @@
       <c r="A105" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4221,7 +4690,9 @@
       <c r="A106" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>903</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4234,7 +4705,9 @@
       <c r="A107" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4247,7 +4720,9 @@
       <c r="A108" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>870</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4260,7 +4735,9 @@
       <c r="A109" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>868</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4273,7 +4750,9 @@
       <c r="A110" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4286,7 +4765,9 @@
       <c r="A111" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4299,7 +4780,9 @@
       <c r="A112" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>872</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4312,7 +4795,9 @@
       <c r="A113" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>905</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4325,7 +4810,9 @@
       <c r="A114" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>874</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4338,7 +4825,9 @@
       <c r="A115" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>906</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>114</v>
       </c>
@@ -4351,7 +4840,9 @@
       <c r="A116" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>875</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>115</v>
       </c>
@@ -4364,7 +4855,9 @@
       <c r="A117" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>116</v>
       </c>
@@ -4390,7 +4883,9 @@
       <c r="A119" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>877</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>118</v>
       </c>
@@ -4793,7 +5288,9 @@
       <c r="A150" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>149</v>
       </c>
@@ -7874,7 +8371,9 @@
       <c r="A387" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B387" s="1"/>
+      <c r="B387" s="1" t="s">
+        <v>852</v>
+      </c>
       <c r="C387" s="1" t="s">
         <v>386</v>
       </c>
@@ -7887,7 +8386,9 @@
       <c r="A388" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B388" s="1"/>
+      <c r="B388" s="1" t="s">
+        <v>908</v>
+      </c>
       <c r="C388" s="1" t="s">
         <v>387</v>
       </c>
@@ -7900,7 +8401,9 @@
       <c r="A389" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B389" s="1"/>
+      <c r="B389" s="1" t="s">
+        <v>853</v>
+      </c>
       <c r="C389" s="1" t="s">
         <v>388</v>
       </c>
@@ -7913,7 +8416,9 @@
       <c r="A390" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B390" s="1"/>
+      <c r="B390" s="1" t="s">
+        <v>854</v>
+      </c>
       <c r="C390" s="1" t="s">
         <v>389</v>
       </c>
